--- a/results/FrequencyTables/27068471_EnvV2.xlsx
+++ b/results/FrequencyTables/27068471_EnvV2.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.35</v>
+        <v>0.141473094432123</v>
       </c>
       <c r="C2">
-        <v>0.01</v>
+        <v>0.105492004202171</v>
       </c>
       <c r="D2">
-        <v>0.86</v>
+        <v>0.916014941052877</v>
       </c>
       <c r="E2">
-        <v>0.17</v>
+        <v>0.213814637562741</v>
       </c>
       <c r="F2">
-        <v>0.28</v>
+        <v>0.140918641298004</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.000379362670713202</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.981557137854558</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00446480681685537</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.988502392903</v>
       </c>
       <c r="K2">
-        <v>0.01</v>
+        <v>0.0170713201820941</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.122621687872067</v>
       </c>
       <c r="M2">
-        <v>0.14</v>
+        <v>0.0632952025213027</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.00364771798762694</v>
       </c>
       <c r="O2">
-        <v>0.01</v>
+        <v>0.179263452783938</v>
       </c>
       <c r="P2">
-        <v>0.97</v>
+        <v>0.925207190381697</v>
       </c>
       <c r="Q2">
-        <v>0.14</v>
+        <v>0.0232870316330104</v>
       </c>
       <c r="R2">
-        <v>0.86</v>
+        <v>0.968600443562507</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.948523403758609</v>
       </c>
       <c r="T2">
-        <v>0.19</v>
+        <v>0.233599859927629</v>
       </c>
       <c r="U2">
-        <v>0.16</v>
+        <v>0.0157581417065484</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>0.00796661608497724</v>
       </c>
       <c r="W2">
-        <v>0.14</v>
+        <v>0.0167503209991829</v>
       </c>
       <c r="X2">
-        <v>0.13</v>
+        <v>0.0213318547916423</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.65</v>
+        <v>0.696772499124548</v>
       </c>
       <c r="C3">
-        <v>0.14</v>
+        <v>0.348926111824443</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00630325668261935</v>
       </c>
       <c r="E3">
-        <v>0.02</v>
+        <v>0.0672347379479398</v>
       </c>
       <c r="F3">
-        <v>0.68</v>
+        <v>0.699165402124431</v>
       </c>
       <c r="G3">
-        <v>0.01</v>
+        <v>0.00513598692657873</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000320999182911171</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00735379946305591</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000320999182911171</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>0.0471285164001401</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00630325668261935</v>
       </c>
       <c r="M3">
-        <v>0.01</v>
+        <v>0.0267304774133302</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.00671180109723357</v>
       </c>
       <c r="O3">
-        <v>0.14</v>
+        <v>0.0144157814871017</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.0198727675965916</v>
       </c>
       <c r="Q3">
-        <v>0.07</v>
+        <v>0.0651628341309677</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.0024512664876853</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.0317789191082059</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.005632076572896</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>0.0360686354616552</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.00265553869499241</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000320999182911171</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0273724757791526</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.136804015407961</v>
       </c>
       <c r="C4">
-        <v>0.01</v>
+        <v>0.0425469826076806</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.0461655188514066</v>
       </c>
       <c r="E4">
-        <v>0.81</v>
+        <v>0.687901248978639</v>
       </c>
       <c r="F4">
-        <v>0.01</v>
+        <v>0.0145033267188047</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000933815804832497</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00443562507295436</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000204272207307109</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0103011555970585</v>
       </c>
       <c r="K4">
-        <v>0.94</v>
+        <v>0.888029648651803</v>
       </c>
       <c r="L4">
-        <v>0.86</v>
+        <v>0.854616551885141</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00860861445079958</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.00140072370724875</v>
       </c>
       <c r="O4">
-        <v>0.85</v>
+        <v>0.801739231936501</v>
       </c>
       <c r="P4">
-        <v>0.03</v>
+        <v>0.0460487918758025</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.0595307575580717</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.0168086844869849</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.0157289599626474</v>
       </c>
       <c r="T4">
-        <v>0.81</v>
+        <v>0.754464806816855</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.013102603011556</v>
       </c>
       <c r="V4">
-        <v>0.14</v>
+        <v>0.00443562507295436</v>
       </c>
       <c r="W4">
-        <v>0.86</v>
+        <v>0.979514415781487</v>
       </c>
       <c r="X4">
-        <v>0.01</v>
+        <v>0.00525271390218279</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0248920275475662</v>
       </c>
       <c r="C5">
-        <v>0.84</v>
+        <v>0.502918174390102</v>
       </c>
       <c r="D5">
-        <v>0.14</v>
+        <v>0.0314579199252947</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0310201937667795</v>
       </c>
       <c r="F5">
-        <v>0.03</v>
+        <v>0.145354266370958</v>
       </c>
       <c r="G5">
-        <v>0.99</v>
+        <v>0.993521652853975</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.0136862378895763</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.987947939768881</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000875452317030466</v>
       </c>
       <c r="K5">
-        <v>0.04</v>
+        <v>0.0477705147659624</v>
       </c>
       <c r="L5">
-        <v>0.14</v>
+        <v>0.0164585035601728</v>
       </c>
       <c r="M5">
-        <v>0.85</v>
+        <v>0.901336523870667</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.988239757207891</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00449398856075639</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.00887125014590872</v>
       </c>
       <c r="Q5">
-        <v>0.79</v>
+        <v>0.851990194934049</v>
       </c>
       <c r="R5">
-        <v>0.14</v>
+        <v>0.0121396054628225</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.00396871717053811</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00627407493871834</v>
       </c>
       <c r="U5">
-        <v>0.84</v>
+        <v>0.935041438076339</v>
       </c>
       <c r="V5">
-        <v>0.86</v>
+        <v>0.984942220147076</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.0033850822925178</v>
       </c>
       <c r="X5">
-        <v>0.86</v>
+        <v>0.94598459203922</v>
       </c>
     </row>
   </sheetData>
